--- a/agent/APIregex.xlsx
+++ b/agent/APIregex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\agent\agent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\AIagent\agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4E75C6-52C8-49EF-AC3C-CD73E2B72419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E76871E-C6B9-4398-8B67-C00A9A40083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="9225" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15090" yWindow="1065" windowWidth="12810" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3108,9 +3108,6 @@
     <t xml:space="preserve">Private Key </t>
   </si>
   <si>
-    <t>/(?i)-----\s*?BEGIN[ A-Z0-9_-]*?PRIVATE KEY\s*?-----[\s\S]*?----\s*?END[ A-Z0-9_-]*? PRIVATE KEY\s*?-----/gm</t>
-  </si>
-  <si>
     <t>ProspectCRM API Key</t>
   </si>
   <si>
@@ -4630,6 +4627,9 @@
   </si>
   <si>
     <t>Regex</t>
+  </si>
+  <si>
+    <t>(?i)-----\s*BEGIN[\sA-Z0-9_-]*PRIVATE KEY\s*-----[\s\S]*?-----\s*END[\sA-Z0-9_-]*PRIVATE KEY\s*-----</t>
   </si>
 </sst>
 </file>
@@ -4901,8 +4901,8 @@
   </sheetPr>
   <dimension ref="A1:AA762"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="C510" sqref="C510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12579,7 +12579,7 @@
         <v>1022</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1023</v>
+        <v>1530</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>6</v>
@@ -12591,10 +12591,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C511" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>6</v>
@@ -12606,10 +12606,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>6</v>
@@ -12621,10 +12621,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C513" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>1029</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>6</v>
@@ -12636,10 +12636,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C514" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>6</v>
@@ -12651,10 +12651,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>6</v>
@@ -12666,10 +12666,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C516" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>6</v>
@@ -12681,10 +12681,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C517" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>1037</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>6</v>
@@ -12696,10 +12696,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C518" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>6</v>
@@ -12711,10 +12711,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C519" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>1041</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>6</v>
@@ -12726,10 +12726,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C520" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>6</v>
@@ -12741,10 +12741,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C521" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>1045</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>6</v>
@@ -12756,10 +12756,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C522" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="C522" s="2" t="s">
-        <v>1047</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>6</v>
@@ -12771,10 +12771,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>1048</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>1049</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>6</v>
@@ -12786,10 +12786,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C524" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>1051</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>6</v>
@@ -12801,10 +12801,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>6</v>
@@ -12816,10 +12816,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>1055</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>6</v>
@@ -12831,10 +12831,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C527" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>6</v>
@@ -12846,10 +12846,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>1059</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>6</v>
@@ -12861,10 +12861,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C529" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>1061</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>6</v>
@@ -12876,10 +12876,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>1062</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>1063</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>6</v>
@@ -12891,10 +12891,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>1064</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>1065</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>6</v>
@@ -12906,10 +12906,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>6</v>
@@ -12921,10 +12921,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>6</v>
@@ -12936,10 +12936,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="D534" s="2" t="s">
         <v>6</v>
@@ -12951,10 +12951,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>1073</v>
       </c>
       <c r="D535" s="2" t="s">
         <v>6</v>
@@ -12966,10 +12966,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>1075</v>
       </c>
       <c r="D536" s="2" t="s">
         <v>6</v>
@@ -12981,10 +12981,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>6</v>
@@ -12996,10 +12996,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>1079</v>
       </c>
       <c r="D538" s="2" t="s">
         <v>6</v>
@@ -13011,10 +13011,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>1081</v>
       </c>
       <c r="D539" s="2" t="s">
         <v>6</v>
@@ -13026,10 +13026,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>1082</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>1083</v>
       </c>
       <c r="D540" s="2" t="s">
         <v>6</v>
@@ -13041,10 +13041,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>6</v>
@@ -13056,10 +13056,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C542" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>6</v>
@@ -13071,10 +13071,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>1089</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>6</v>
@@ -13086,10 +13086,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="D544" s="2" t="s">
         <v>6</v>
@@ -13101,10 +13101,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>1092</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="D545" s="2" t="s">
         <v>6</v>
@@ -13116,10 +13116,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="D546" s="2" t="s">
         <v>6</v>
@@ -13131,10 +13131,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>1096</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>1097</v>
       </c>
       <c r="D547" s="2" t="s">
         <v>6</v>
@@ -13146,10 +13146,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>1099</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>6</v>
@@ -13161,10 +13161,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="C549" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="D549" s="2" t="s">
         <v>6</v>
@@ -13176,10 +13176,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C550" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>6</v>
@@ -13191,10 +13191,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C551" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>6</v>
@@ -13206,10 +13206,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C552" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="C552" s="2" t="s">
-        <v>1107</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>6</v>
@@ -13221,10 +13221,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C553" s="2" t="s">
         <v>1108</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>1109</v>
       </c>
       <c r="D553" s="2" t="s">
         <v>6</v>
@@ -13236,10 +13236,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C554" s="2" t="s">
         <v>1110</v>
-      </c>
-      <c r="C554" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="D554" s="2" t="s">
         <v>6</v>
@@ -13251,10 +13251,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C555" s="2" t="s">
         <v>1112</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>1113</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>6</v>
@@ -13266,10 +13266,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C556" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>1115</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>6</v>
@@ -13281,10 +13281,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C557" s="2" t="s">
         <v>1116</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>1117</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>6</v>
@@ -13296,10 +13296,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C558" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>1119</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>6</v>
@@ -13311,10 +13311,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C559" s="2" t="s">
         <v>1120</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>1121</v>
       </c>
       <c r="D559" s="2" t="s">
         <v>6</v>
@@ -13326,10 +13326,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C560" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>1123</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>6</v>
@@ -13341,10 +13341,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C561" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>1125</v>
       </c>
       <c r="D561" s="2" t="s">
         <v>6</v>
@@ -13356,10 +13356,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>1126</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>1127</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>6</v>
@@ -13371,10 +13371,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>1129</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>6</v>
@@ -13386,10 +13386,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>1130</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>1131</v>
       </c>
       <c r="D564" s="2" t="s">
         <v>6</v>
@@ -13401,10 +13401,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>1133</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>6</v>
@@ -13416,10 +13416,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="D566" s="2" t="s">
         <v>6</v>
@@ -13431,10 +13431,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>6</v>
@@ -13446,10 +13446,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>1138</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>1139</v>
       </c>
       <c r="D568" s="2" t="s">
         <v>6</v>
@@ -13461,10 +13461,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>1140</v>
-      </c>
-      <c r="C569" s="2" t="s">
-        <v>1141</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>6</v>
@@ -13476,10 +13476,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C570" s="2" t="s">
         <v>1142</v>
-      </c>
-      <c r="C570" s="2" t="s">
-        <v>1143</v>
       </c>
       <c r="D570" s="2" t="s">
         <v>6</v>
@@ -13491,10 +13491,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C571" s="2" t="s">
         <v>1144</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>1145</v>
       </c>
       <c r="D571" s="2" t="s">
         <v>6</v>
@@ -13506,10 +13506,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="C572" s="2" t="s">
-        <v>1147</v>
       </c>
       <c r="D572" s="2" t="s">
         <v>6</v>
@@ -13521,10 +13521,10 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="D573" s="2" t="s">
         <v>6</v>
@@ -13536,10 +13536,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C574" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="C574" s="2" t="s">
-        <v>1151</v>
       </c>
       <c r="D574" s="2" t="s">
         <v>6</v>
@@ -13551,10 +13551,10 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C575" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>1153</v>
       </c>
       <c r="D575" s="2" t="s">
         <v>6</v>
@@ -13566,10 +13566,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>1155</v>
       </c>
       <c r="D576" s="2" t="s">
         <v>6</v>
@@ -13581,10 +13581,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C577" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="C577" s="2" t="s">
-        <v>1157</v>
       </c>
       <c r="D577" s="2" t="s">
         <v>6</v>
@@ -13596,10 +13596,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C578" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="C578" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="D578" s="2" t="s">
         <v>6</v>
@@ -13611,10 +13611,10 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C579" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="C579" s="2" t="s">
-        <v>1161</v>
       </c>
       <c r="D579" s="2" t="s">
         <v>6</v>
@@ -13626,10 +13626,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C580" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="C580" s="2" t="s">
-        <v>1163</v>
       </c>
       <c r="D580" s="2" t="s">
         <v>6</v>
@@ -13641,10 +13641,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C581" s="2" t="s">
         <v>1164</v>
-      </c>
-      <c r="C581" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="D581" s="2" t="s">
         <v>6</v>
@@ -13656,10 +13656,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C582" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="C582" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="D582" s="2" t="s">
         <v>6</v>
@@ -13671,10 +13671,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C583" s="2" t="s">
         <v>1168</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="D583" s="2" t="s">
         <v>6</v>
@@ -13686,10 +13686,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C584" s="2" t="s">
         <v>1170</v>
-      </c>
-      <c r="C584" s="2" t="s">
-        <v>1171</v>
       </c>
       <c r="D584" s="2" t="s">
         <v>6</v>
@@ -13701,10 +13701,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C585" s="2" t="s">
         <v>1172</v>
-      </c>
-      <c r="C585" s="2" t="s">
-        <v>1173</v>
       </c>
       <c r="D585" s="2" t="s">
         <v>6</v>
@@ -13716,10 +13716,10 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C586" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="C586" s="2" t="s">
-        <v>1175</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>6</v>
@@ -13731,10 +13731,10 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C587" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="C587" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="D587" s="2" t="s">
         <v>6</v>
@@ -13746,10 +13746,10 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C588" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="C588" s="2" t="s">
-        <v>1179</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>6</v>
@@ -13761,10 +13761,10 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C589" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="C589" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="D589" s="2" t="s">
         <v>6</v>
@@ -13776,10 +13776,10 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C590" s="2" t="s">
         <v>1182</v>
-      </c>
-      <c r="C590" s="2" t="s">
-        <v>1183</v>
       </c>
       <c r="D590" s="2" t="s">
         <v>6</v>
@@ -13791,10 +13791,10 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C591" s="2" t="s">
         <v>1184</v>
-      </c>
-      <c r="C591" s="2" t="s">
-        <v>1185</v>
       </c>
       <c r="D591" s="2" t="s">
         <v>6</v>
@@ -13806,10 +13806,10 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C592" s="2" t="s">
         <v>1186</v>
-      </c>
-      <c r="C592" s="2" t="s">
-        <v>1187</v>
       </c>
       <c r="D592" s="2" t="s">
         <v>6</v>
@@ -13821,10 +13821,10 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C593" s="2" t="s">
         <v>1188</v>
-      </c>
-      <c r="C593" s="2" t="s">
-        <v>1189</v>
       </c>
       <c r="D593" s="2" t="s">
         <v>6</v>
@@ -13836,10 +13836,10 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C594" s="2" t="s">
         <v>1190</v>
-      </c>
-      <c r="C594" s="2" t="s">
-        <v>1191</v>
       </c>
       <c r="D594" s="2" t="s">
         <v>6</v>
@@ -13851,10 +13851,10 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C595" s="2" t="s">
         <v>1192</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>1193</v>
       </c>
       <c r="D595" s="2" t="s">
         <v>6</v>
@@ -13866,10 +13866,10 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C596" s="2" t="s">
         <v>1194</v>
-      </c>
-      <c r="C596" s="2" t="s">
-        <v>1195</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>6</v>
@@ -13881,10 +13881,10 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C597" s="2" t="s">
         <v>1196</v>
-      </c>
-      <c r="C597" s="2" t="s">
-        <v>1197</v>
       </c>
       <c r="D597" s="2" t="s">
         <v>6</v>
@@ -13896,10 +13896,10 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C598" s="2" t="s">
         <v>1198</v>
-      </c>
-      <c r="C598" s="2" t="s">
-        <v>1199</v>
       </c>
       <c r="D598" s="2" t="s">
         <v>6</v>
@@ -13911,10 +13911,10 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C599" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="C599" s="2" t="s">
-        <v>1201</v>
       </c>
       <c r="D599" s="2" t="s">
         <v>6</v>
@@ -13926,10 +13926,10 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C600" s="2" t="s">
         <v>1202</v>
-      </c>
-      <c r="C600" s="2" t="s">
-        <v>1203</v>
       </c>
       <c r="D600" s="2" t="s">
         <v>6</v>
@@ -13941,10 +13941,10 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C601" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="C601" s="2" t="s">
-        <v>1205</v>
       </c>
       <c r="D601" s="2" t="s">
         <v>6</v>
@@ -13956,10 +13956,10 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C602" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="C602" s="2" t="s">
-        <v>1207</v>
       </c>
       <c r="D602" s="2" t="s">
         <v>6</v>
@@ -13971,10 +13971,10 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C603" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>1209</v>
       </c>
       <c r="D603" s="2" t="s">
         <v>6</v>
@@ -13986,10 +13986,10 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C604" s="2" t="s">
         <v>1210</v>
-      </c>
-      <c r="C604" s="2" t="s">
-        <v>1211</v>
       </c>
       <c r="D604" s="2" t="s">
         <v>6</v>
@@ -14001,10 +14001,10 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C605" s="2" t="s">
         <v>1212</v>
-      </c>
-      <c r="C605" s="2" t="s">
-        <v>1213</v>
       </c>
       <c r="D605" s="2" t="s">
         <v>6</v>
@@ -14016,10 +14016,10 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C606" s="2" t="s">
         <v>1214</v>
-      </c>
-      <c r="C606" s="2" t="s">
-        <v>1215</v>
       </c>
       <c r="D606" s="2" t="s">
         <v>6</v>
@@ -14031,10 +14031,10 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C607" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="C607" s="2" t="s">
-        <v>1217</v>
       </c>
       <c r="D607" s="2" t="s">
         <v>6</v>
@@ -14046,10 +14046,10 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C608" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="C608" s="2" t="s">
-        <v>1219</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>6</v>
@@ -14061,10 +14061,10 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C609" s="2" t="s">
         <v>1220</v>
-      </c>
-      <c r="C609" s="2" t="s">
-        <v>1221</v>
       </c>
       <c r="D609" s="2" t="s">
         <v>6</v>
@@ -14076,10 +14076,10 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C610" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="C610" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>6</v>
@@ -14091,10 +14091,10 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C611" s="2" t="s">
         <v>1224</v>
-      </c>
-      <c r="C611" s="2" t="s">
-        <v>1225</v>
       </c>
       <c r="D611" s="2" t="s">
         <v>6</v>
@@ -14106,10 +14106,10 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C612" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="C612" s="2" t="s">
-        <v>1227</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>6</v>
@@ -14121,10 +14121,10 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C613" s="2" t="s">
         <v>1228</v>
-      </c>
-      <c r="C613" s="2" t="s">
-        <v>1229</v>
       </c>
       <c r="D613" s="2" t="s">
         <v>6</v>
@@ -14136,10 +14136,10 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C614" s="2" t="s">
         <v>1230</v>
-      </c>
-      <c r="C614" s="2" t="s">
-        <v>1231</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>6</v>
@@ -14151,10 +14151,10 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C615" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="C615" s="2" t="s">
-        <v>1233</v>
       </c>
       <c r="D615" s="2" t="s">
         <v>6</v>
@@ -14166,10 +14166,10 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C616" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="C616" s="2" t="s">
-        <v>1235</v>
       </c>
       <c r="D616" s="2" t="s">
         <v>6</v>
@@ -14181,10 +14181,10 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C617" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="C617" s="2" t="s">
-        <v>1237</v>
       </c>
       <c r="D617" s="2" t="s">
         <v>6</v>
@@ -14196,10 +14196,10 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C618" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="C618" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>6</v>
@@ -14211,10 +14211,10 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C619" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="C619" s="2" t="s">
-        <v>1241</v>
       </c>
       <c r="D619" s="2" t="s">
         <v>6</v>
@@ -14226,10 +14226,10 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C620" s="2" t="s">
         <v>1242</v>
-      </c>
-      <c r="C620" s="2" t="s">
-        <v>1243</v>
       </c>
       <c r="D620" s="2" t="s">
         <v>6</v>
@@ -14241,10 +14241,10 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C621" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="C621" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="D621" s="2" t="s">
         <v>6</v>
@@ -14256,10 +14256,10 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C622" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="C622" s="2" t="s">
-        <v>1247</v>
       </c>
       <c r="D622" s="2" t="s">
         <v>137</v>
@@ -14271,10 +14271,10 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C623" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="C623" s="2" t="s">
-        <v>1249</v>
       </c>
       <c r="D623" s="2" t="s">
         <v>137</v>
@@ -14286,10 +14286,10 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C624" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="C624" s="2" t="s">
-        <v>1251</v>
       </c>
       <c r="D624" s="2" t="s">
         <v>6</v>
@@ -14301,10 +14301,10 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C625" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="C625" s="2" t="s">
-        <v>1253</v>
       </c>
       <c r="D625" s="2" t="s">
         <v>6</v>
@@ -14316,10 +14316,10 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C626" s="2" t="s">
         <v>1254</v>
-      </c>
-      <c r="C626" s="2" t="s">
-        <v>1255</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>6</v>
@@ -14331,10 +14331,10 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C627" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="C627" s="2" t="s">
-        <v>1257</v>
       </c>
       <c r="D627" s="2" t="s">
         <v>6</v>
@@ -14346,10 +14346,10 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C628" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="C628" s="2" t="s">
-        <v>1259</v>
       </c>
       <c r="D628" s="2" t="s">
         <v>6</v>
@@ -14361,10 +14361,10 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C629" s="2" t="s">
         <v>1260</v>
-      </c>
-      <c r="C629" s="2" t="s">
-        <v>1261</v>
       </c>
       <c r="D629" s="2" t="s">
         <v>6</v>
@@ -14376,10 +14376,10 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C630" s="2" t="s">
         <v>1262</v>
-      </c>
-      <c r="C630" s="2" t="s">
-        <v>1263</v>
       </c>
       <c r="D630" s="2" t="s">
         <v>6</v>
@@ -14391,10 +14391,10 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C631" s="2" t="s">
         <v>1264</v>
-      </c>
-      <c r="C631" s="2" t="s">
-        <v>1265</v>
       </c>
       <c r="D631" s="2" t="s">
         <v>6</v>
@@ -14406,10 +14406,10 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C632" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="C632" s="2" t="s">
-        <v>1267</v>
       </c>
       <c r="D632" s="2" t="s">
         <v>6</v>
@@ -14421,10 +14421,10 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C633" s="2" t="s">
         <v>1268</v>
-      </c>
-      <c r="C633" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="D633" s="2" t="s">
         <v>6</v>
@@ -14436,10 +14436,10 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C634" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="C634" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="D634" s="2" t="s">
         <v>6</v>
@@ -14451,10 +14451,10 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C635" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="C635" s="2" t="s">
-        <v>1273</v>
       </c>
       <c r="D635" s="2" t="s">
         <v>6</v>
@@ -14466,10 +14466,10 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C636" s="2" t="s">
         <v>1274</v>
-      </c>
-      <c r="C636" s="2" t="s">
-        <v>1275</v>
       </c>
       <c r="D636" s="2" t="s">
         <v>6</v>
@@ -14481,10 +14481,10 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C637" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="C637" s="2" t="s">
-        <v>1277</v>
       </c>
       <c r="D637" s="2" t="s">
         <v>6</v>
@@ -14496,10 +14496,10 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C638" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="C638" s="2" t="s">
-        <v>1279</v>
       </c>
       <c r="D638" s="2" t="s">
         <v>6</v>
@@ -14511,10 +14511,10 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C639" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="C639" s="2" t="s">
-        <v>1281</v>
       </c>
       <c r="D639" s="2" t="s">
         <v>6</v>
@@ -14526,10 +14526,10 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C640" s="2" t="s">
         <v>1282</v>
-      </c>
-      <c r="C640" s="2" t="s">
-        <v>1283</v>
       </c>
       <c r="D640" s="2" t="s">
         <v>6</v>
@@ -14541,10 +14541,10 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C641" s="2" t="s">
         <v>1284</v>
-      </c>
-      <c r="C641" s="2" t="s">
-        <v>1285</v>
       </c>
       <c r="D641" s="2" t="s">
         <v>6</v>
@@ -14556,10 +14556,10 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C642" s="2" t="s">
         <v>1286</v>
-      </c>
-      <c r="C642" s="2" t="s">
-        <v>1287</v>
       </c>
       <c r="D642" s="2" t="s">
         <v>6</v>
@@ -14571,10 +14571,10 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C643" s="2" t="s">
         <v>1288</v>
-      </c>
-      <c r="C643" s="2" t="s">
-        <v>1289</v>
       </c>
       <c r="D643" s="2" t="s">
         <v>6</v>
@@ -14586,10 +14586,10 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C644" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="C644" s="2" t="s">
-        <v>1291</v>
       </c>
       <c r="D644" s="2" t="s">
         <v>6</v>
@@ -14601,10 +14601,10 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C645" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="C645" s="2" t="s">
-        <v>1293</v>
       </c>
       <c r="D645" s="2" t="s">
         <v>6</v>
@@ -14616,10 +14616,10 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C646" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="C646" s="2" t="s">
-        <v>1295</v>
       </c>
       <c r="D646" s="2" t="s">
         <v>6</v>
@@ -14631,10 +14631,10 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C647" s="2" t="s">
         <v>1296</v>
-      </c>
-      <c r="C647" s="2" t="s">
-        <v>1297</v>
       </c>
       <c r="D647" s="2" t="s">
         <v>6</v>
@@ -14646,10 +14646,10 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C648" s="2" t="s">
         <v>1298</v>
-      </c>
-      <c r="C648" s="2" t="s">
-        <v>1299</v>
       </c>
       <c r="D648" s="2" t="s">
         <v>6</v>
@@ -14661,10 +14661,10 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C649" s="2" t="s">
         <v>1300</v>
-      </c>
-      <c r="C649" s="2" t="s">
-        <v>1301</v>
       </c>
       <c r="D649" s="2" t="s">
         <v>6</v>
@@ -14676,10 +14676,10 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C650" s="2" t="s">
         <v>1302</v>
-      </c>
-      <c r="C650" s="2" t="s">
-        <v>1303</v>
       </c>
       <c r="D650" s="2" t="s">
         <v>6</v>
@@ -14691,10 +14691,10 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C651" s="2" t="s">
         <v>1304</v>
-      </c>
-      <c r="C651" s="2" t="s">
-        <v>1305</v>
       </c>
       <c r="D651" s="2" t="s">
         <v>6</v>
@@ -14706,10 +14706,10 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C652" s="2" t="s">
         <v>1306</v>
-      </c>
-      <c r="C652" s="2" t="s">
-        <v>1307</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>6</v>
@@ -14721,10 +14721,10 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C653" s="2" t="s">
         <v>1308</v>
-      </c>
-      <c r="C653" s="2" t="s">
-        <v>1309</v>
       </c>
       <c r="D653" s="2" t="s">
         <v>6</v>
@@ -14736,10 +14736,10 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C654" s="2" t="s">
         <v>1310</v>
-      </c>
-      <c r="C654" s="2" t="s">
-        <v>1311</v>
       </c>
       <c r="D654" s="2" t="s">
         <v>6</v>
@@ -14751,10 +14751,10 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C655" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="C655" s="2" t="s">
-        <v>1313</v>
       </c>
       <c r="D655" s="2" t="s">
         <v>6</v>
@@ -14766,10 +14766,10 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C656" s="2" t="s">
         <v>1314</v>
-      </c>
-      <c r="C656" s="2" t="s">
-        <v>1315</v>
       </c>
       <c r="D656" s="2" t="s">
         <v>6</v>
@@ -14781,10 +14781,10 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C657" s="2" t="s">
         <v>1316</v>
-      </c>
-      <c r="C657" s="2" t="s">
-        <v>1317</v>
       </c>
       <c r="D657" s="2" t="s">
         <v>6</v>
@@ -14796,10 +14796,10 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C658" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="C658" s="2" t="s">
-        <v>1319</v>
       </c>
       <c r="D658" s="2" t="s">
         <v>6</v>
@@ -14811,10 +14811,10 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C659" s="2" t="s">
         <v>1320</v>
-      </c>
-      <c r="C659" s="2" t="s">
-        <v>1321</v>
       </c>
       <c r="D659" s="2" t="s">
         <v>6</v>
@@ -14826,10 +14826,10 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C660" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="C660" s="2" t="s">
-        <v>1323</v>
       </c>
       <c r="D660" s="2" t="s">
         <v>6</v>
@@ -14841,10 +14841,10 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C661" s="2" t="s">
         <v>1324</v>
-      </c>
-      <c r="C661" s="2" t="s">
-        <v>1325</v>
       </c>
       <c r="D661" s="2" t="s">
         <v>6</v>
@@ -14856,10 +14856,10 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C662" s="2" t="s">
         <v>1326</v>
-      </c>
-      <c r="C662" s="2" t="s">
-        <v>1327</v>
       </c>
       <c r="D662" s="2" t="s">
         <v>6</v>
@@ -14871,10 +14871,10 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C663" s="2" t="s">
         <v>1328</v>
-      </c>
-      <c r="C663" s="2" t="s">
-        <v>1329</v>
       </c>
       <c r="D663" s="2" t="s">
         <v>6</v>
@@ -14886,10 +14886,10 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C664" s="2" t="s">
         <v>1330</v>
-      </c>
-      <c r="C664" s="2" t="s">
-        <v>1331</v>
       </c>
       <c r="D664" s="2" t="s">
         <v>6</v>
@@ -14901,10 +14901,10 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C665" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="C665" s="2" t="s">
-        <v>1333</v>
       </c>
       <c r="D665" s="2" t="s">
         <v>6</v>
@@ -14916,10 +14916,10 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C666" s="2" t="s">
         <v>1334</v>
-      </c>
-      <c r="C666" s="2" t="s">
-        <v>1335</v>
       </c>
       <c r="D666" s="2" t="s">
         <v>6</v>
@@ -14931,10 +14931,10 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C667" s="2" t="s">
         <v>1336</v>
-      </c>
-      <c r="C667" s="2" t="s">
-        <v>1337</v>
       </c>
       <c r="D667" s="2" t="s">
         <v>6</v>
@@ -14946,10 +14946,10 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C668" s="2" t="s">
         <v>1338</v>
-      </c>
-      <c r="C668" s="2" t="s">
-        <v>1339</v>
       </c>
       <c r="D668" s="2" t="s">
         <v>6</v>
@@ -14961,10 +14961,10 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C669" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="C669" s="2" t="s">
-        <v>1341</v>
       </c>
       <c r="D669" s="2" t="s">
         <v>6</v>
@@ -14976,10 +14976,10 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C670" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>1343</v>
       </c>
       <c r="D670" s="2" t="s">
         <v>6</v>
@@ -14991,10 +14991,10 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C671" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="C671" s="2" t="s">
-        <v>1345</v>
       </c>
       <c r="D671" s="2" t="s">
         <v>6</v>
@@ -15006,10 +15006,10 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C672" s="2" t="s">
         <v>1346</v>
-      </c>
-      <c r="C672" s="2" t="s">
-        <v>1347</v>
       </c>
       <c r="D672" s="2" t="s">
         <v>6</v>
@@ -15021,10 +15021,10 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C673" s="2" t="s">
         <v>1348</v>
-      </c>
-      <c r="C673" s="2" t="s">
-        <v>1349</v>
       </c>
       <c r="D673" s="2" t="s">
         <v>6</v>
@@ -15036,10 +15036,10 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C674" s="2" t="s">
         <v>1350</v>
-      </c>
-      <c r="C674" s="2" t="s">
-        <v>1351</v>
       </c>
       <c r="D674" s="2" t="s">
         <v>6</v>
@@ -15051,10 +15051,10 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C675" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="C675" s="2" t="s">
-        <v>1353</v>
       </c>
       <c r="D675" s="2" t="s">
         <v>6</v>
@@ -15066,10 +15066,10 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C676" s="2" t="s">
         <v>1354</v>
-      </c>
-      <c r="C676" s="2" t="s">
-        <v>1355</v>
       </c>
       <c r="D676" s="2" t="s">
         <v>6</v>
@@ -15081,10 +15081,10 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C677" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>1357</v>
       </c>
       <c r="D677" s="2" t="s">
         <v>6</v>
@@ -15096,10 +15096,10 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C678" s="2" t="s">
         <v>1358</v>
-      </c>
-      <c r="C678" s="2" t="s">
-        <v>1359</v>
       </c>
       <c r="D678" s="2" t="s">
         <v>6</v>
@@ -15111,10 +15111,10 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C679" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="C679" s="2" t="s">
-        <v>1361</v>
       </c>
       <c r="D679" s="2" t="s">
         <v>6</v>
@@ -15126,10 +15126,10 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C680" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="C680" s="2" t="s">
-        <v>1363</v>
       </c>
       <c r="D680" s="2" t="s">
         <v>6</v>
@@ -15141,10 +15141,10 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C681" s="2" t="s">
         <v>1364</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>1365</v>
       </c>
       <c r="D681" s="2" t="s">
         <v>6</v>
@@ -15156,10 +15156,10 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C682" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="C682" s="2" t="s">
-        <v>1367</v>
       </c>
       <c r="D682" s="2" t="s">
         <v>6</v>
@@ -15171,10 +15171,10 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C683" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="C683" s="2" t="s">
-        <v>1369</v>
       </c>
       <c r="D683" s="2" t="s">
         <v>6</v>
@@ -15186,10 +15186,10 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C684" s="2" t="s">
         <v>1370</v>
-      </c>
-      <c r="C684" s="2" t="s">
-        <v>1371</v>
       </c>
       <c r="D684" s="2" t="s">
         <v>6</v>
@@ -15201,10 +15201,10 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C685" s="2" t="s">
         <v>1372</v>
-      </c>
-      <c r="C685" s="2" t="s">
-        <v>1373</v>
       </c>
       <c r="D685" s="2" t="s">
         <v>6</v>
@@ -15216,10 +15216,10 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C686" s="2" t="s">
         <v>1374</v>
-      </c>
-      <c r="C686" s="2" t="s">
-        <v>1375</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>6</v>
@@ -15231,10 +15231,10 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C687" s="2" t="s">
         <v>1376</v>
-      </c>
-      <c r="C687" s="2" t="s">
-        <v>1377</v>
       </c>
       <c r="D687" s="2" t="s">
         <v>6</v>
@@ -15246,10 +15246,10 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C688" s="2" t="s">
         <v>1378</v>
-      </c>
-      <c r="C688" s="2" t="s">
-        <v>1379</v>
       </c>
       <c r="D688" s="2" t="s">
         <v>6</v>
@@ -15261,13 +15261,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C689" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="C689" s="2" t="s">
+      <c r="D689" s="2" t="s">
         <v>1381</v>
-      </c>
-      <c r="D689" s="2" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
@@ -15276,10 +15276,10 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C690" s="2" t="s">
         <v>1383</v>
-      </c>
-      <c r="C690" s="2" t="s">
-        <v>1384</v>
       </c>
       <c r="D690" s="2" t="s">
         <v>6</v>
@@ -15291,10 +15291,10 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C691" s="2" t="s">
         <v>1385</v>
-      </c>
-      <c r="C691" s="2" t="s">
-        <v>1386</v>
       </c>
       <c r="D691" s="2" t="s">
         <v>6</v>
@@ -15306,13 +15306,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C692" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="C692" s="2" t="s">
-        <v>1388</v>
-      </c>
       <c r="D692" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
@@ -15321,10 +15321,10 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C693" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="C693" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="D693" s="2" t="s">
         <v>6</v>
@@ -15336,10 +15336,10 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C694" s="2" t="s">
         <v>1391</v>
-      </c>
-      <c r="C694" s="2" t="s">
-        <v>1392</v>
       </c>
       <c r="D694" s="2" t="s">
         <v>6</v>
@@ -15351,10 +15351,10 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C695" s="2" t="s">
         <v>1393</v>
-      </c>
-      <c r="C695" s="2" t="s">
-        <v>1394</v>
       </c>
       <c r="D695" s="2" t="s">
         <v>6</v>
@@ -15366,10 +15366,10 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C696" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="C696" s="2" t="s">
-        <v>1396</v>
       </c>
       <c r="D696" s="2" t="s">
         <v>6</v>
@@ -15381,10 +15381,10 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C697" s="2" t="s">
         <v>1397</v>
-      </c>
-      <c r="C697" s="2" t="s">
-        <v>1398</v>
       </c>
       <c r="D697" s="2" t="s">
         <v>6</v>
@@ -15396,10 +15396,10 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C698" s="2" t="s">
         <v>1399</v>
-      </c>
-      <c r="C698" s="2" t="s">
-        <v>1400</v>
       </c>
       <c r="D698" s="2" t="s">
         <v>6</v>
@@ -15411,10 +15411,10 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C699" s="2" t="s">
         <v>1401</v>
-      </c>
-      <c r="C699" s="2" t="s">
-        <v>1402</v>
       </c>
       <c r="D699" s="2" t="s">
         <v>6</v>
@@ -15426,10 +15426,10 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C700" s="2" t="s">
         <v>1403</v>
-      </c>
-      <c r="C700" s="2" t="s">
-        <v>1404</v>
       </c>
       <c r="D700" s="2" t="s">
         <v>6</v>
@@ -15441,10 +15441,10 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C701" s="2" t="s">
         <v>1405</v>
-      </c>
-      <c r="C701" s="2" t="s">
-        <v>1406</v>
       </c>
       <c r="D701" s="2" t="s">
         <v>6</v>
@@ -15456,10 +15456,10 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C702" s="2" t="s">
         <v>1407</v>
-      </c>
-      <c r="C702" s="2" t="s">
-        <v>1408</v>
       </c>
       <c r="D702" s="2" t="s">
         <v>6</v>
@@ -15471,10 +15471,10 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C703" s="2" t="s">
         <v>1409</v>
-      </c>
-      <c r="C703" s="2" t="s">
-        <v>1410</v>
       </c>
       <c r="D703" s="2" t="s">
         <v>6</v>
@@ -15486,10 +15486,10 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C704" s="2" t="s">
         <v>1411</v>
-      </c>
-      <c r="C704" s="2" t="s">
-        <v>1412</v>
       </c>
       <c r="D704" s="2" t="s">
         <v>6</v>
@@ -15501,10 +15501,10 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C705" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="C705" s="2" t="s">
-        <v>1414</v>
       </c>
       <c r="D705" s="2" t="s">
         <v>6</v>
@@ -15516,10 +15516,10 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C706" s="2" t="s">
         <v>1415</v>
-      </c>
-      <c r="C706" s="2" t="s">
-        <v>1416</v>
       </c>
       <c r="D706" s="2" t="s">
         <v>6</v>
@@ -15531,10 +15531,10 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C707" s="2" t="s">
         <v>1417</v>
-      </c>
-      <c r="C707" s="2" t="s">
-        <v>1418</v>
       </c>
       <c r="D707" s="2" t="s">
         <v>6</v>
@@ -15546,10 +15546,10 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C708" s="2" t="s">
         <v>1419</v>
-      </c>
-      <c r="C708" s="2" t="s">
-        <v>1420</v>
       </c>
       <c r="D708" s="2" t="s">
         <v>6</v>
@@ -15561,10 +15561,10 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C709" s="2" t="s">
         <v>1421</v>
-      </c>
-      <c r="C709" s="2" t="s">
-        <v>1422</v>
       </c>
       <c r="D709" s="2" t="s">
         <v>6</v>
@@ -15576,10 +15576,10 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C710" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="C710" s="2" t="s">
-        <v>1424</v>
       </c>
       <c r="D710" s="2" t="s">
         <v>6</v>
@@ -15591,10 +15591,10 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C711" s="2" t="s">
         <v>1425</v>
-      </c>
-      <c r="C711" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="D711" s="2" t="s">
         <v>6</v>
@@ -15606,10 +15606,10 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C712" s="2" t="s">
         <v>1427</v>
-      </c>
-      <c r="C712" s="2" t="s">
-        <v>1428</v>
       </c>
       <c r="D712" s="2" t="s">
         <v>6</v>
@@ -15621,10 +15621,10 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C713" s="2" t="s">
         <v>1429</v>
-      </c>
-      <c r="C713" s="2" t="s">
-        <v>1430</v>
       </c>
       <c r="D713" s="2" t="s">
         <v>6</v>
@@ -15636,10 +15636,10 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C714" s="2" t="s">
         <v>1431</v>
-      </c>
-      <c r="C714" s="2" t="s">
-        <v>1432</v>
       </c>
       <c r="D714" s="2" t="s">
         <v>6</v>
@@ -15651,10 +15651,10 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C715" s="2" t="s">
         <v>1433</v>
-      </c>
-      <c r="C715" s="2" t="s">
-        <v>1434</v>
       </c>
       <c r="D715" s="2" t="s">
         <v>6</v>
@@ -15666,10 +15666,10 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C716" s="2" t="s">
         <v>1435</v>
-      </c>
-      <c r="C716" s="2" t="s">
-        <v>1436</v>
       </c>
       <c r="D716" s="2" t="s">
         <v>6</v>
@@ -15681,10 +15681,10 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C717" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="C717" s="2" t="s">
-        <v>1438</v>
       </c>
       <c r="D717" s="2" t="s">
         <v>6</v>
@@ -15696,10 +15696,10 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C718" s="2" t="s">
         <v>1439</v>
-      </c>
-      <c r="C718" s="2" t="s">
-        <v>1440</v>
       </c>
       <c r="D718" s="2" t="s">
         <v>6</v>
@@ -15711,10 +15711,10 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C719" s="2" t="s">
         <v>1441</v>
-      </c>
-      <c r="C719" s="2" t="s">
-        <v>1442</v>
       </c>
       <c r="D719" s="2" t="s">
         <v>6</v>
@@ -15726,10 +15726,10 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C720" s="2" t="s">
         <v>1443</v>
-      </c>
-      <c r="C720" s="2" t="s">
-        <v>1444</v>
       </c>
       <c r="D720" s="2" t="s">
         <v>6</v>
@@ -15741,10 +15741,10 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C721" s="2" t="s">
         <v>1445</v>
-      </c>
-      <c r="C721" s="2" t="s">
-        <v>1446</v>
       </c>
       <c r="D721" s="2" t="s">
         <v>6</v>
@@ -15756,10 +15756,10 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C722" s="2" t="s">
         <v>1447</v>
-      </c>
-      <c r="C722" s="2" t="s">
-        <v>1448</v>
       </c>
       <c r="D722" s="2" t="s">
         <v>6</v>
@@ -15771,10 +15771,10 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C723" s="2" t="s">
         <v>1449</v>
-      </c>
-      <c r="C723" s="2" t="s">
-        <v>1450</v>
       </c>
       <c r="D723" s="2" t="s">
         <v>6</v>
@@ -15786,10 +15786,10 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C724" s="2" t="s">
         <v>1451</v>
-      </c>
-      <c r="C724" s="2" t="s">
-        <v>1452</v>
       </c>
       <c r="D724" s="2" t="s">
         <v>6</v>
@@ -15801,10 +15801,10 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C725" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="C725" s="2" t="s">
-        <v>1454</v>
       </c>
       <c r="D725" s="2" t="s">
         <v>6</v>
@@ -15816,10 +15816,10 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C726" s="2" t="s">
         <v>1455</v>
-      </c>
-      <c r="C726" s="2" t="s">
-        <v>1456</v>
       </c>
       <c r="D726" s="2" t="s">
         <v>6</v>
@@ -15831,10 +15831,10 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C727" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="C727" s="2" t="s">
-        <v>1458</v>
       </c>
       <c r="D727" s="2" t="s">
         <v>6</v>
@@ -15846,10 +15846,10 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C728" s="2" t="s">
         <v>1459</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>1460</v>
       </c>
       <c r="D728" s="2" t="s">
         <v>6</v>
@@ -15861,10 +15861,10 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C729" s="2" t="s">
         <v>1461</v>
-      </c>
-      <c r="C729" s="2" t="s">
-        <v>1462</v>
       </c>
       <c r="D729" s="2" t="s">
         <v>6</v>
@@ -15876,10 +15876,10 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C730" s="2" t="s">
         <v>1463</v>
-      </c>
-      <c r="C730" s="2" t="s">
-        <v>1464</v>
       </c>
       <c r="D730" s="2" t="s">
         <v>6</v>
@@ -15891,10 +15891,10 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C731" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="C731" s="2" t="s">
-        <v>1466</v>
       </c>
       <c r="D731" s="2" t="s">
         <v>6</v>
@@ -15906,10 +15906,10 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C732" s="2" t="s">
         <v>1467</v>
-      </c>
-      <c r="C732" s="2" t="s">
-        <v>1468</v>
       </c>
       <c r="D732" s="2" t="s">
         <v>6</v>
@@ -15921,10 +15921,10 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C733" s="2" t="s">
         <v>1469</v>
-      </c>
-      <c r="C733" s="2" t="s">
-        <v>1470</v>
       </c>
       <c r="D733" s="2" t="s">
         <v>6</v>
@@ -15936,10 +15936,10 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C734" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="C734" s="2" t="s">
-        <v>1472</v>
       </c>
       <c r="D734" s="2" t="s">
         <v>6</v>
@@ -15951,10 +15951,10 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C735" s="2" t="s">
         <v>1473</v>
-      </c>
-      <c r="C735" s="2" t="s">
-        <v>1474</v>
       </c>
       <c r="D735" s="2" t="s">
         <v>6</v>
@@ -15966,10 +15966,10 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C736" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="C736" s="2" t="s">
-        <v>1476</v>
       </c>
       <c r="D736" s="2" t="s">
         <v>6</v>
@@ -15981,10 +15981,10 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C737" s="2" t="s">
         <v>1477</v>
-      </c>
-      <c r="C737" s="2" t="s">
-        <v>1478</v>
       </c>
       <c r="D737" s="2" t="s">
         <v>6</v>
@@ -15996,10 +15996,10 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C738" s="2" t="s">
         <v>1479</v>
-      </c>
-      <c r="C738" s="2" t="s">
-        <v>1480</v>
       </c>
       <c r="D738" s="2" t="s">
         <v>6</v>
@@ -16011,10 +16011,10 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C739" s="2" t="s">
         <v>1481</v>
-      </c>
-      <c r="C739" s="2" t="s">
-        <v>1482</v>
       </c>
       <c r="D739" s="2" t="s">
         <v>6</v>
@@ -16026,10 +16026,10 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C740" s="2" t="s">
         <v>1483</v>
-      </c>
-      <c r="C740" s="2" t="s">
-        <v>1484</v>
       </c>
       <c r="D740" s="2" t="s">
         <v>6</v>
@@ -16041,10 +16041,10 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C741" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="C741" s="2" t="s">
-        <v>1486</v>
       </c>
       <c r="D741" s="2" t="s">
         <v>6</v>
@@ -16056,10 +16056,10 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C742" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="C742" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="D742" s="2" t="s">
         <v>6</v>
@@ -16071,10 +16071,10 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C743" s="2" t="s">
         <v>1489</v>
-      </c>
-      <c r="C743" s="2" t="s">
-        <v>1490</v>
       </c>
       <c r="D743" s="2" t="s">
         <v>6</v>
@@ -16086,10 +16086,10 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C744" s="2" t="s">
         <v>1491</v>
-      </c>
-      <c r="C744" s="2" t="s">
-        <v>1492</v>
       </c>
       <c r="D744" s="2" t="s">
         <v>6</v>
@@ -16101,10 +16101,10 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C745" s="2" t="s">
         <v>1493</v>
-      </c>
-      <c r="C745" s="2" t="s">
-        <v>1494</v>
       </c>
       <c r="D745" s="2" t="s">
         <v>6</v>
@@ -16116,10 +16116,10 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C746" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="C746" s="2" t="s">
-        <v>1496</v>
       </c>
       <c r="D746" s="2" t="s">
         <v>6</v>
@@ -16131,13 +16131,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C747" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="C747" s="2" t="s">
-        <v>1498</v>
-      </c>
       <c r="D747" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
@@ -16146,10 +16146,10 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C748" s="2" t="s">
         <v>1499</v>
-      </c>
-      <c r="C748" s="2" t="s">
-        <v>1500</v>
       </c>
       <c r="D748" s="2" t="s">
         <v>137</v>
@@ -16161,10 +16161,10 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C749" s="2" t="s">
         <v>1501</v>
-      </c>
-      <c r="C749" s="2" t="s">
-        <v>1502</v>
       </c>
       <c r="D749" s="2" t="s">
         <v>6</v>
@@ -16176,10 +16176,10 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C750" s="2" t="s">
         <v>1503</v>
-      </c>
-      <c r="C750" s="2" t="s">
-        <v>1504</v>
       </c>
       <c r="D750" s="2" t="s">
         <v>6</v>
@@ -16191,10 +16191,10 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C751" s="2" t="s">
         <v>1505</v>
-      </c>
-      <c r="C751" s="2" t="s">
-        <v>1506</v>
       </c>
       <c r="D751" s="2" t="s">
         <v>6</v>
@@ -16206,10 +16206,10 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C752" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="C752" s="2" t="s">
-        <v>1508</v>
       </c>
       <c r="D752" s="2" t="s">
         <v>6</v>
@@ -16221,10 +16221,10 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C753" s="2" t="s">
         <v>1509</v>
-      </c>
-      <c r="C753" s="2" t="s">
-        <v>1510</v>
       </c>
       <c r="D753" s="2" t="s">
         <v>6</v>
@@ -16236,10 +16236,10 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C754" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>1512</v>
       </c>
       <c r="D754" s="2" t="s">
         <v>6</v>
@@ -16251,10 +16251,10 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C755" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="C755" s="2" t="s">
-        <v>1514</v>
       </c>
       <c r="D755" s="2" t="s">
         <v>6</v>
@@ -16266,10 +16266,10 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C756" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="C756" s="2" t="s">
-        <v>1516</v>
       </c>
       <c r="D756" s="2" t="s">
         <v>6</v>
@@ -16281,10 +16281,10 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C757" s="2" t="s">
         <v>1517</v>
-      </c>
-      <c r="C757" s="2" t="s">
-        <v>1518</v>
       </c>
       <c r="D757" s="2" t="s">
         <v>6</v>
@@ -16296,10 +16296,10 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C758" s="2" t="s">
         <v>1519</v>
-      </c>
-      <c r="C758" s="2" t="s">
-        <v>1520</v>
       </c>
       <c r="D758" s="2" t="s">
         <v>6</v>
@@ -16311,10 +16311,10 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C759" s="2" t="s">
         <v>1521</v>
-      </c>
-      <c r="C759" s="2" t="s">
-        <v>1522</v>
       </c>
       <c r="D759" s="2" t="s">
         <v>6</v>
@@ -16326,10 +16326,10 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C760" s="2" t="s">
         <v>1523</v>
-      </c>
-      <c r="C760" s="2" t="s">
-        <v>1524</v>
       </c>
       <c r="D760" s="2" t="s">
         <v>6</v>
@@ -16341,10 +16341,10 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C761" s="2" t="s">
         <v>1525</v>
-      </c>
-      <c r="C761" s="2" t="s">
-        <v>1526</v>
       </c>
       <c r="D761" s="2" t="s">
         <v>6</v>
@@ -16356,10 +16356,10 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C762" s="2" t="s">
         <v>1527</v>
-      </c>
-      <c r="C762" s="2" t="s">
-        <v>1528</v>
       </c>
       <c r="D762" s="2" t="s">
         <v>6</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -16442,10 +16442,10 @@
         <v>686</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1376</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1377</v>
       </c>
       <c r="D3" s="2">
         <v>1002083</v>
@@ -16456,10 +16456,10 @@
         <v>758</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1521</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1522</v>
       </c>
       <c r="D4" s="2">
         <v>794496</v>
@@ -16484,10 +16484,10 @@
         <v>614</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1233</v>
       </c>
       <c r="D6" s="2">
         <v>611968</v>
